--- a/biology/Zoologie/Brachycephalidae/Brachycephalidae.xlsx
+++ b/biology/Zoologie/Brachycephalidae/Brachycephalidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Brachycephalidae sont une famille d'amphibiens[1]. Elle a été créée par Albert Charles Lewis Günther (1830-1914) en 1858.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Brachycephalidae sont une famille d'amphibiens. Elle a été créée par Albert Charles Lewis Günther (1830-1914) en 1858.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ses deux genres se rencontrent au Brésil et en Argentine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ses deux genres se rencontrent au Brésil et en Argentine.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (19 novembre 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (19 novembre 2016) :
 Brachycephalus Fitzinger, 1826
 Ischnocnema Reinhardt &amp; Lütken, 1862</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de cette famille vient du grec brachys, court, de kephale, la tête, en référence à l'aspect des espèces du genre Brachycephalus[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de cette famille vient du grec brachys, court, de kephale, la tête, en référence à l'aspect des espèces du genre Brachycephalus.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Günther, 1858 : On the Systematic Arrangement of th Tailless Batrachians and the Structure of Rhinophrynus dorsalis. Proceedings of the Zoological Society of London, vol. 26, p. 339-352 (texte intégral).</t>
         </is>
